--- a/Tableau Table 3.xlsx
+++ b/Tableau Table 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1c8e48a6948c60c/Data Analytics/DataAnalytics-Projects-SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{189FB882-C1CD-4201-BDA8-83E4BA4FA8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{189FB882-C1CD-4201-BDA8-83E4BA4FA8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F843779B-9D72-4F92-8ED6-9640D2B49EAD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,10 +854,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1126,7 +1122,7 @@
   <dimension ref="A1:D256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D256"/>
+      <selection activeCell="A2" sqref="A2:D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,10 +1155,10 @@
         <v>896007</v>
       </c>
       <c r="C2">
-        <v>656904</v>
+        <v>658450</v>
       </c>
       <c r="D2">
-        <v>73.314605801070797</v>
+        <v>73.487149095933404</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,10 +1183,10 @@
         <v>8939617</v>
       </c>
       <c r="C4">
-        <v>6054092</v>
+        <v>6060632</v>
       </c>
       <c r="D4">
-        <v>67.7220511795975</v>
+        <v>67.795208676165899</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,10 +1225,10 @@
         <v>2119843</v>
       </c>
       <c r="C7">
-        <v>1342787</v>
+        <v>1343236</v>
       </c>
       <c r="D7">
-        <v>63.343700453288299</v>
+        <v>63.364881267150402</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1257,10 +1253,10 @@
         <v>367512</v>
       </c>
       <c r="C9">
-        <v>229674</v>
+        <v>229784</v>
       </c>
       <c r="D9">
-        <v>62.494285900868498</v>
+        <v>62.524216896318997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,30 +1275,30 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>110796</v>
+        <v>51815808</v>
       </c>
       <c r="C11">
-        <v>66391</v>
+        <v>31083586</v>
       </c>
       <c r="D11">
-        <v>59.921838333513797</v>
+        <v>59.988615829362303</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>51815808</v>
+        <v>110796</v>
       </c>
       <c r="C12">
-        <v>30994088</v>
+        <v>66391</v>
       </c>
       <c r="D12">
-        <v>59.815892478218203</v>
+        <v>59.921838333513797</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,10 +1323,10 @@
         <v>5882259</v>
       </c>
       <c r="C14">
-        <v>3410732</v>
+        <v>3411355</v>
       </c>
       <c r="D14">
-        <v>57.983369994418801</v>
+        <v>57.993961163559803</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,10 +1337,10 @@
         <v>10384972</v>
       </c>
       <c r="C15">
-        <v>5993868</v>
+        <v>5999934</v>
       </c>
       <c r="D15">
-        <v>57.716746853048797</v>
+        <v>57.775158180493897</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,10 +1351,10 @@
         <v>67813000</v>
       </c>
       <c r="C16">
-        <v>38843098</v>
+        <v>38890876</v>
       </c>
       <c r="D16">
-        <v>57.279722177163698</v>
+        <v>57.350177694542303</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,10 +1393,10 @@
         <v>39355</v>
       </c>
       <c r="C19">
-        <v>21460</v>
+        <v>21462</v>
       </c>
       <c r="D19">
-        <v>54.529284716046199</v>
+        <v>54.534366662431701</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,10 +1407,10 @@
         <v>10270857</v>
       </c>
       <c r="C20">
-        <v>5577825</v>
+        <v>5580792</v>
       </c>
       <c r="D20">
-        <v>54.307298796974798</v>
+        <v>54.336186357185198</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,10 +1421,10 @@
         <v>1850654</v>
       </c>
       <c r="C21">
-        <v>977402</v>
+        <v>977533</v>
       </c>
       <c r="D21">
-        <v>52.813870123750903</v>
+        <v>52.820948702458701</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,10 +1435,10 @@
         <v>395762</v>
       </c>
       <c r="C22">
-        <v>202364</v>
+        <v>202482</v>
       </c>
       <c r="D22">
-        <v>51.132751502165398</v>
+        <v>51.162567401620201</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,10 +1449,10 @@
         <v>9449000</v>
       </c>
       <c r="C23">
-        <v>4819213</v>
+        <v>4820908</v>
       </c>
       <c r="D23">
-        <v>51.002360038099297</v>
+        <v>51.020298444279803</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,10 +1491,10 @@
         <v>8740471</v>
       </c>
       <c r="C26">
-        <v>4400214</v>
+        <v>4401372</v>
       </c>
       <c r="D26">
-        <v>50.342984948980401</v>
+        <v>50.356233662922698</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,10 +1505,10 @@
         <v>10994</v>
       </c>
       <c r="C27">
-        <v>5484</v>
+        <v>5485</v>
       </c>
       <c r="D27">
-        <v>49.881753683827498</v>
+        <v>49.890849554302299</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,10 +1561,10 @@
         <v>2750058</v>
       </c>
       <c r="C31">
-        <v>1317274</v>
+        <v>1318040</v>
       </c>
       <c r="D31">
-        <v>47.899862475627799</v>
+        <v>47.927716433617</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,10 +1603,10 @@
         <v>1326064</v>
       </c>
       <c r="C34">
-        <v>617605</v>
+        <v>617931</v>
       </c>
       <c r="D34">
-        <v>46.574298073094504</v>
+        <v>46.598882105237799</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,52 +1631,52 @@
         <v>83369840</v>
       </c>
       <c r="C36">
-        <v>38385526</v>
+        <v>38396459</v>
       </c>
       <c r="D36">
-        <v>46.0424609187207</v>
+        <v>46.055574773803102</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37">
-        <v>68722</v>
+        <v>36491</v>
       </c>
       <c r="C37">
-        <v>31472</v>
+        <v>16742</v>
       </c>
       <c r="D37">
-        <v>45.796106050464203</v>
+        <v>45.8798059795566</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38">
-        <v>84534</v>
+        <v>68722</v>
       </c>
       <c r="C38">
-        <v>38008</v>
+        <v>31472</v>
       </c>
       <c r="D38">
-        <v>44.961790522156797</v>
+        <v>45.796106050464203</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39">
-        <v>36491</v>
+        <v>84534</v>
       </c>
       <c r="C39">
-        <v>16178</v>
+        <v>38008</v>
       </c>
       <c r="D39">
-        <v>44.334219396563498</v>
+        <v>44.961790522156797</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,10 +1687,10 @@
         <v>10493990</v>
       </c>
       <c r="C40">
-        <v>4638427</v>
+        <v>4639698</v>
       </c>
       <c r="D40">
-        <v>44.200794931193897</v>
+        <v>44.212906625601903</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,10 +1715,10 @@
         <v>59037472</v>
       </c>
       <c r="C42">
-        <v>25737170</v>
+        <v>25765219</v>
       </c>
       <c r="D42">
-        <v>43.594634268892797</v>
+        <v>43.642144772052603</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,10 +1743,10 @@
         <v>26177410</v>
       </c>
       <c r="C44">
-        <v>11178368</v>
+        <v>11206733</v>
       </c>
       <c r="D44">
-        <v>42.702345266395703</v>
+        <v>42.810702051883702</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1769,16 +1765,16 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B46">
-        <v>106459</v>
+        <v>5637022</v>
       </c>
       <c r="C46">
-        <v>44114</v>
+        <v>2340779</v>
       </c>
       <c r="D46">
-        <v>41.4375487276792</v>
+        <v>41.525099600462802</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,38 +1785,38 @@
         <v>17032</v>
       </c>
       <c r="C47">
-        <v>7055</v>
+        <v>7059</v>
       </c>
       <c r="D47">
-        <v>41.422029121653402</v>
+        <v>41.4455143259746</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>11655923</v>
+        <v>106459</v>
       </c>
       <c r="C48">
-        <v>4786803</v>
+        <v>44114</v>
       </c>
       <c r="D48">
-        <v>41.067558527968998</v>
+        <v>41.4375487276792</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49">
-        <v>5637022</v>
+        <v>11655923</v>
       </c>
       <c r="C49">
-        <v>2314707</v>
+        <v>4790564</v>
       </c>
       <c r="D49">
-        <v>41.062585883113499</v>
+        <v>41.0998253849137</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,10 +1827,10 @@
         <v>450146793</v>
       </c>
       <c r="C50">
-        <v>183619939</v>
+        <v>183751124</v>
       </c>
       <c r="D50">
-        <v>40.7911245521192</v>
+        <v>40.820267267793199</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,10 +1869,10 @@
         <v>31816</v>
       </c>
       <c r="C53">
-        <v>12287</v>
+        <v>12293</v>
       </c>
       <c r="D53">
-        <v>38.618933869751103</v>
+        <v>38.637792305758097</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,10 +1897,10 @@
         <v>281646</v>
       </c>
       <c r="C55">
-        <v>107332</v>
+        <v>107466</v>
       </c>
       <c r="D55">
-        <v>38.108831653920198</v>
+        <v>38.156409109307397</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,10 +1911,10 @@
         <v>6871547</v>
       </c>
       <c r="C56">
-        <v>2528385</v>
+        <v>2532267</v>
       </c>
       <c r="D56">
-        <v>36.7949895416563</v>
+        <v>36.851483370484097</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,10 +1925,10 @@
         <v>67508936</v>
       </c>
       <c r="C57">
-        <v>24555629</v>
+        <v>24569895</v>
       </c>
       <c r="D57">
-        <v>36.373894264901502</v>
+        <v>36.395026282150297</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,10 +1939,10 @@
         <v>523798</v>
       </c>
       <c r="C58">
-        <v>186042</v>
+        <v>186241</v>
       </c>
       <c r="D58">
-        <v>35.517890484499702</v>
+        <v>35.5558822294091</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,10 +1953,10 @@
         <v>3252412</v>
       </c>
       <c r="C59">
-        <v>1111616</v>
+        <v>1114163</v>
       </c>
       <c r="D59">
-        <v>34.178203745405</v>
+        <v>34.256514857281303</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,10 +1967,10 @@
         <v>5023108</v>
       </c>
       <c r="C60">
-        <v>1708933</v>
+        <v>1709705</v>
       </c>
       <c r="D60">
-        <v>34.021426574941302</v>
+        <v>34.036795545705999</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,10 +1981,10 @@
         <v>1250514600</v>
       </c>
       <c r="C61">
-        <v>419680524</v>
+        <v>420161939</v>
       </c>
       <c r="D61">
-        <v>33.560625681619399</v>
+        <v>33.599123033029798</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,10 +1995,10 @@
         <v>744807803</v>
       </c>
       <c r="C62">
-        <v>248639723</v>
+        <v>248853166</v>
       </c>
       <c r="D62">
-        <v>33.383071713065803</v>
+        <v>33.4117291733046</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,10 +2023,10 @@
         <v>5643455</v>
       </c>
       <c r="C64">
-        <v>1866143</v>
+        <v>1866312</v>
       </c>
       <c r="D64">
-        <v>33.0673851390682</v>
+        <v>33.070379758499001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,10 +2065,10 @@
         <v>4030361</v>
       </c>
       <c r="C67">
-        <v>1271818</v>
+        <v>1272377</v>
       </c>
       <c r="D67">
-        <v>31.5559325827141</v>
+        <v>31.569802308031498</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,10 +2079,10 @@
         <v>45038860</v>
       </c>
       <c r="C68">
-        <v>13908794</v>
+        <v>13937365</v>
       </c>
       <c r="D68">
-        <v>30.881762993113099</v>
+        <v>30.9451993234287</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,10 +2093,10 @@
         <v>338289856</v>
       </c>
       <c r="C69">
-        <v>102977396</v>
+        <v>103081453</v>
       </c>
       <c r="D69">
-        <v>30.440580518027701</v>
+        <v>30.471340234334399</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,10 +2107,10 @@
         <v>3422796</v>
       </c>
       <c r="C70">
-        <v>1037095</v>
+        <v>1037893</v>
       </c>
       <c r="D70">
-        <v>30.299643916844602</v>
+        <v>30.3229581897373</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,10 +2121,10 @@
         <v>171783</v>
       </c>
       <c r="C71">
-        <v>51097</v>
+        <v>51110</v>
       </c>
       <c r="D71">
-        <v>29.745085369332202</v>
+        <v>29.752653056472401</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,10 +2135,10 @@
         <v>3398373</v>
       </c>
       <c r="C72">
-        <v>1007966</v>
+        <v>1007993</v>
       </c>
       <c r="D72">
-        <v>29.660252126532299</v>
+        <v>29.661046624370002</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2181,10 +2177,10 @@
         <v>47558632</v>
       </c>
       <c r="C75">
-        <v>13813830</v>
+        <v>13825052</v>
       </c>
       <c r="D75">
-        <v>29.045894339433499</v>
+        <v>29.069490476513302</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2195,10 +2191,10 @@
         <v>49574</v>
       </c>
       <c r="C76">
-        <v>13799</v>
+        <v>13814</v>
       </c>
       <c r="D76">
-        <v>27.835155525073599</v>
+        <v>27.865413321499201</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,10 +2205,10 @@
         <v>289959</v>
       </c>
       <c r="C77">
-        <v>80053</v>
+        <v>80057</v>
       </c>
       <c r="D77">
-        <v>27.608386013194998</v>
+        <v>27.609765518573301</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2223,10 +2219,10 @@
         <v>5434324</v>
       </c>
       <c r="C78">
-        <v>1482339</v>
+        <v>1482831</v>
       </c>
       <c r="D78">
-        <v>27.2773393710055</v>
+        <v>27.2863929349814</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,10 +2233,10 @@
         <v>123951696</v>
       </c>
       <c r="C79">
-        <v>33580723</v>
+        <v>33647899</v>
       </c>
       <c r="D79">
-        <v>27.091781785704701</v>
+        <v>27.145977090946801</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2251,10 +2247,10 @@
         <v>19603736</v>
       </c>
       <c r="C80">
-        <v>5278252</v>
+        <v>5281681</v>
       </c>
       <c r="D80">
-        <v>26.924724960589099</v>
+        <v>26.942216524442099</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2265,10 +2261,10 @@
         <v>5540745</v>
       </c>
       <c r="C81">
-        <v>1469861</v>
+        <v>1471205</v>
       </c>
       <c r="D81">
-        <v>26.528219580579901</v>
+        <v>26.5524762464253</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,10 +2275,10 @@
         <v>10549349</v>
       </c>
       <c r="C82">
-        <v>2703758</v>
+        <v>2704952</v>
       </c>
       <c r="D82">
-        <v>25.629619420117798</v>
+        <v>25.640937654067599</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,10 +2289,10 @@
         <v>306292</v>
       </c>
       <c r="C83">
-        <v>78378</v>
+        <v>78417</v>
       </c>
       <c r="D83">
-        <v>25.5893069358651</v>
+        <v>25.602039883509899</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,10 +2303,10 @@
         <v>99479</v>
       </c>
       <c r="C84">
-        <v>24898</v>
+        <v>24907</v>
       </c>
       <c r="D84">
-        <v>25.028397953336899</v>
+        <v>25.037445088913199</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,10 +2373,10 @@
         <v>5180836</v>
       </c>
       <c r="C89">
-        <v>1226315</v>
+        <v>1227546</v>
       </c>
       <c r="D89">
-        <v>23.670214614012099</v>
+        <v>23.6939752580472</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2391,10 +2387,10 @@
         <v>4408582</v>
       </c>
       <c r="C90">
-        <v>1035357</v>
+        <v>1036100</v>
       </c>
       <c r="D90">
-        <v>23.485034416962201</v>
+        <v>23.501887908629101</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,10 +2415,10 @@
         <v>1299478</v>
       </c>
       <c r="C92">
-        <v>298814</v>
+        <v>299776</v>
       </c>
       <c r="D92">
-        <v>22.994925654762898</v>
+        <v>23.068955380545098</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,10 +2429,10 @@
         <v>114178</v>
       </c>
       <c r="C93">
-        <v>25929</v>
+        <v>26049</v>
       </c>
       <c r="D93">
-        <v>22.709278494981501</v>
+        <v>22.814377550841701</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,10 +2443,10 @@
         <v>5489744</v>
       </c>
       <c r="C94">
-        <v>1235933</v>
+        <v>1236353</v>
       </c>
       <c r="D94">
-        <v>22.513490610855399</v>
+        <v>22.5211412408302</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,10 +2457,10 @@
         <v>533293</v>
       </c>
       <c r="C95">
-        <v>118317</v>
+        <v>118441</v>
       </c>
       <c r="D95">
-        <v>22.1861153249715</v>
+        <v>22.2093670833857</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,10 +2471,10 @@
         <v>9967304</v>
       </c>
       <c r="C96">
-        <v>2200211</v>
+        <v>2200739</v>
       </c>
       <c r="D96">
-        <v>22.0742840792254</v>
+        <v>22.079581399343301</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,10 +2527,10 @@
         <v>600323657</v>
       </c>
       <c r="C100">
-        <v>123626604</v>
+        <v>123756662</v>
       </c>
       <c r="D100">
-        <v>20.5933253768142</v>
+        <v>20.6149900236232</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,10 +2555,10 @@
         <v>6781955</v>
       </c>
       <c r="C102">
-        <v>1302267</v>
+        <v>1303628</v>
       </c>
       <c r="D102">
-        <v>19.201941033227101</v>
+        <v>19.222008992982101</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,10 +2569,10 @@
         <v>3272993</v>
       </c>
       <c r="C103">
-        <v>619425</v>
+        <v>619888</v>
       </c>
       <c r="D103">
-        <v>18.925338367665301</v>
+        <v>18.939484441304899</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2601,10 +2597,10 @@
         <v>2695131</v>
       </c>
       <c r="C105">
-        <v>505520</v>
+        <v>506323</v>
       </c>
       <c r="D105">
-        <v>18.756787703454901</v>
+        <v>18.786582173556699</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,10 +2625,10 @@
         <v>215313504</v>
       </c>
       <c r="C107">
-        <v>37358092</v>
+        <v>37407232</v>
       </c>
       <c r="D107">
-        <v>17.350556888433701</v>
+        <v>17.3733794235219</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,10 +2667,10 @@
         <v>2093606</v>
       </c>
       <c r="C110">
-        <v>347965</v>
+        <v>348057</v>
       </c>
       <c r="D110">
-        <v>16.620366964939901</v>
+        <v>16.624761297015802</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,10 +2681,10 @@
         <v>39857144</v>
       </c>
       <c r="C111">
-        <v>6509865</v>
+        <v>6512571</v>
       </c>
       <c r="D111">
-        <v>16.332994155326301</v>
+        <v>16.339783402443501</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2713,10 +2709,10 @@
         <v>144713312</v>
       </c>
       <c r="C113">
-        <v>22776383</v>
+        <v>22820815</v>
       </c>
       <c r="D113">
-        <v>15.738968782636899</v>
+        <v>15.769672246876601</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,10 +2737,10 @@
         <v>125459</v>
       </c>
       <c r="C115">
-        <v>19683</v>
+        <v>19693</v>
       </c>
       <c r="D115">
-        <v>15.6887907603281</v>
+        <v>15.6967614918021</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,10 +2751,10 @@
         <v>436816679</v>
       </c>
       <c r="C116">
-        <v>68379013</v>
+        <v>68436957</v>
       </c>
       <c r="D116">
-        <v>15.6539382050473</v>
+        <v>15.667203266292899</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,10 +2765,10 @@
         <v>4268886</v>
       </c>
       <c r="C117">
-        <v>665527</v>
+        <v>665741</v>
       </c>
       <c r="D117">
-        <v>15.590179733073199</v>
+        <v>15.5951927505209</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,10 +2793,10 @@
         <v>1782115</v>
       </c>
       <c r="C119">
-        <v>273796</v>
+        <v>273820</v>
       </c>
       <c r="D119">
-        <v>15.3635427567806</v>
+        <v>15.3648894712182</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2811,10 +2807,10 @@
         <v>33938216</v>
       </c>
       <c r="C120">
-        <v>5056911</v>
+        <v>5066877</v>
       </c>
       <c r="D120">
-        <v>14.9003442019463</v>
+        <v>14.9297093282688</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,10 +2835,10 @@
         <v>39701744</v>
       </c>
       <c r="C122">
-        <v>5502019</v>
+        <v>5518614</v>
       </c>
       <c r="D122">
-        <v>13.8583811330807</v>
+        <v>13.9001803044219</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,10 +2891,10 @@
         <v>34049588</v>
       </c>
       <c r="C126">
-        <v>4496896</v>
+        <v>4499355</v>
       </c>
       <c r="D126">
-        <v>13.2069028265482</v>
+        <v>13.214124646677099</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,10 +2919,10 @@
         <v>2630300</v>
       </c>
       <c r="C128">
-        <v>329841</v>
+        <v>329847</v>
       </c>
       <c r="D128">
-        <v>12.540052465498199</v>
+        <v>12.5402805763601</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,10 +2933,10 @@
         <v>1531043</v>
       </c>
       <c r="C129">
-        <v>191257</v>
+        <v>191350</v>
       </c>
       <c r="D129">
-        <v>12.4919417678014</v>
+        <v>12.4980160583341</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,10 +2947,10 @@
         <v>3233530</v>
       </c>
       <c r="C130">
-        <v>402709</v>
+        <v>402804</v>
       </c>
       <c r="D130">
-        <v>12.4541600047007</v>
+        <v>12.457097970329601</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,10 +2961,10 @@
         <v>51874028</v>
       </c>
       <c r="C131">
-        <v>6363544</v>
+        <v>6364014</v>
       </c>
       <c r="D131">
-        <v>12.267302627819801</v>
+        <v>12.268208668892999</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,38 +2975,38 @@
         <v>38454328</v>
       </c>
       <c r="C132">
-        <v>4647673</v>
+        <v>4654477</v>
       </c>
       <c r="D132">
-        <v>12.086215627015999</v>
+        <v>12.1039093440926</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B133">
-        <v>2842318</v>
+        <v>98186856</v>
       </c>
       <c r="C133">
-        <v>333897</v>
+        <v>11544777</v>
       </c>
       <c r="D133">
-        <v>11.747348466990699</v>
+        <v>11.757965852374401</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B134">
-        <v>98186856</v>
+        <v>2842318</v>
       </c>
       <c r="C134">
-        <v>11531072</v>
+        <v>334090</v>
       </c>
       <c r="D134">
-        <v>11.7440077722827</v>
+        <v>11.7541386994699</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3021,10 +3017,10 @@
         <v>9441138</v>
       </c>
       <c r="C135">
-        <v>1060146</v>
+        <v>1061854</v>
       </c>
       <c r="D135">
-        <v>11.2290065032415</v>
+        <v>11.2470975426903</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3049,10 +3045,10 @@
         <v>593162</v>
       </c>
       <c r="C137">
-        <v>63308</v>
+        <v>63370</v>
       </c>
       <c r="D137">
-        <v>10.672969610325699</v>
+        <v>10.6834220668215</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3077,10 +3073,10 @@
         <v>11212198</v>
       </c>
       <c r="C139">
-        <v>1112990</v>
+        <v>1113088</v>
       </c>
       <c r="D139">
-        <v>9.9265995837747401</v>
+        <v>9.9274736318427497</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,10 +3087,10 @@
         <v>12224114</v>
       </c>
       <c r="C140">
-        <v>1196416</v>
+        <v>1196819</v>
       </c>
       <c r="D140">
-        <v>9.7873432790302797</v>
+        <v>9.7906400414786692</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3119,10 +3115,10 @@
         <v>2525921300</v>
       </c>
       <c r="C142">
-        <v>243362021</v>
+        <v>243498004</v>
       </c>
       <c r="D142">
-        <v>9.63458445835189</v>
+        <v>9.6399679594134593</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3133,10 +3129,10 @@
         <v>7975105024</v>
       </c>
       <c r="C143">
-        <v>763739376</v>
+        <v>764473623</v>
       </c>
       <c r="D143">
-        <v>9.5765431765679505</v>
+        <v>9.58574991425718</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3147,10 +3143,10 @@
         <v>12356116</v>
       </c>
       <c r="C144">
-        <v>1152262</v>
+        <v>1152483</v>
       </c>
       <c r="D144">
-        <v>9.3254385115840606</v>
+        <v>9.3272270995189803</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3161,10 +3157,10 @@
         <v>409989</v>
       </c>
       <c r="C145">
-        <v>38003</v>
+        <v>38084</v>
       </c>
       <c r="D145">
-        <v>9.2692730780581893</v>
+        <v>9.2890297056750306</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3175,10 +3171,10 @@
         <v>103959</v>
       </c>
       <c r="C146">
-        <v>9602</v>
+        <v>9611</v>
       </c>
       <c r="D146">
-        <v>9.2363335545744008</v>
+        <v>9.2449908136861705</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3189,10 +3185,10 @@
         <v>808727</v>
       </c>
       <c r="C147">
-        <v>73121</v>
+        <v>73133</v>
       </c>
       <c r="D147">
-        <v>9.0414936066188005</v>
+        <v>9.0429774200688193</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3217,10 +3213,10 @@
         <v>88550568</v>
       </c>
       <c r="C149">
-        <v>7603697</v>
+        <v>7606689</v>
       </c>
       <c r="D149">
-        <v>8.5868415886389293</v>
+        <v>8.5902204489529606</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3245,10 +3241,10 @@
         <v>10358078</v>
       </c>
       <c r="C151">
-        <v>830856</v>
+        <v>831110</v>
       </c>
       <c r="D151">
-        <v>8.0213336875818104</v>
+        <v>8.0237858799673099</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3259,10 +3255,10 @@
         <v>782457</v>
       </c>
       <c r="C152">
-        <v>62654</v>
+        <v>62663</v>
       </c>
       <c r="D152">
-        <v>8.0073409784818903</v>
+        <v>8.0084912014334293</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3273,10 +3269,10 @@
         <v>19397998</v>
       </c>
       <c r="C153">
-        <v>1501922</v>
+        <v>1502318</v>
       </c>
       <c r="D153">
-        <v>7.74266499047995</v>
+        <v>7.7447064382623401</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,10 +3297,10 @@
         <v>6812344</v>
       </c>
       <c r="C155">
-        <v>507244</v>
+        <v>507250</v>
       </c>
       <c r="D155">
-        <v>7.4459539917537896</v>
+        <v>7.4460420671651297</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,10 +3325,10 @@
         <v>17843914</v>
       </c>
       <c r="C157">
-        <v>1246730</v>
+        <v>1247421</v>
       </c>
       <c r="D157">
-        <v>6.9868639806266701</v>
+        <v>6.99073644941351</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3343,10 +3339,10 @@
         <v>1425887360</v>
       </c>
       <c r="C158">
-        <v>99240488</v>
+        <v>99244445</v>
       </c>
       <c r="D158">
-        <v>6.9599107744387299</v>
+        <v>6.9601882858404798</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3385,10 +3381,10 @@
         <v>71697024</v>
       </c>
       <c r="C161">
-        <v>4729402</v>
+        <v>4730490</v>
       </c>
       <c r="D161">
-        <v>6.5963714198235097</v>
+        <v>6.5978889165608896</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3399,10 +3395,10 @@
         <v>4721383370</v>
       </c>
       <c r="C162">
-        <v>296103038</v>
+        <v>296405232</v>
       </c>
       <c r="D162">
-        <v>6.2715313456953998</v>
+        <v>6.27793188503564</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3413,10 +3409,10 @@
         <v>1201680</v>
       </c>
       <c r="C163">
-        <v>74586</v>
+        <v>74627</v>
       </c>
       <c r="D163">
-        <v>6.2068104653485099</v>
+        <v>6.21022235536915</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3427,10 +3423,10 @@
         <v>127504120</v>
       </c>
       <c r="C164">
-        <v>7563576</v>
+        <v>7576730</v>
       </c>
       <c r="D164">
-        <v>5.9320247847677399</v>
+        <v>5.94234131414734</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3441,10 +3437,10 @@
         <v>18001002</v>
       </c>
       <c r="C165">
-        <v>1059993</v>
+        <v>1061100</v>
       </c>
       <c r="D165">
-        <v>5.8885222055972202</v>
+        <v>5.8946718632662796</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3455,10 +3451,10 @@
         <v>11228821</v>
       </c>
       <c r="C166">
-        <v>660961</v>
+        <v>661008</v>
       </c>
       <c r="D166">
-        <v>5.8862902881789596</v>
+        <v>5.8867088539393402</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3483,10 +3479,10 @@
         <v>2827382</v>
       </c>
       <c r="C168">
-        <v>154687</v>
+        <v>154740</v>
       </c>
       <c r="D168">
-        <v>5.47103292020675</v>
+        <v>5.4729074458279801</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3497,10 +3493,10 @@
         <v>10432858</v>
       </c>
       <c r="C169">
-        <v>472485</v>
+        <v>472533</v>
       </c>
       <c r="D169">
-        <v>4.5288165524729704</v>
+        <v>4.5292766373317797</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3511,10 +3507,10 @@
         <v>131237</v>
       </c>
       <c r="C170">
-        <v>5014</v>
+        <v>5025</v>
       </c>
       <c r="D170">
-        <v>3.8205688944428799</v>
+        <v>3.8289506770194399</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,10 +3535,10 @@
         <v>115559008</v>
       </c>
       <c r="C172">
-        <v>4085969</v>
+        <v>4087964</v>
       </c>
       <c r="D172">
-        <v>3.5358290718452698</v>
+        <v>3.53755546257372</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3553,10 +3549,10 @@
         <v>37457976</v>
       </c>
       <c r="C173">
-        <v>1272889</v>
+        <v>1273130</v>
       </c>
       <c r="D173">
-        <v>3.3981788017590699</v>
+        <v>3.3988221894317001</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3581,10 +3577,10 @@
         <v>30547586</v>
       </c>
       <c r="C175">
-        <v>1002346</v>
+        <v>1002754</v>
       </c>
       <c r="D175">
-        <v>3.2812609153469601</v>
+        <v>3.28259653643335</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3623,10 +3619,10 @@
         <v>1417173120</v>
       </c>
       <c r="C178">
-        <v>44834859</v>
+        <v>44905827</v>
       </c>
       <c r="D178">
-        <v>3.16368257111735</v>
+        <v>3.1686902867590399</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3637,10 +3633,10 @@
         <v>6630621</v>
       </c>
       <c r="C179">
-        <v>206866</v>
+        <v>206876</v>
       </c>
       <c r="D179">
-        <v>3.1198586075120298</v>
+        <v>3.1200094229484701</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3651,10 +3647,10 @@
         <v>21832150</v>
       </c>
       <c r="C180">
-        <v>672110</v>
+        <v>672139</v>
       </c>
       <c r="D180">
-        <v>3.0785332640165999</v>
+        <v>3.0786660956433498</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3665,10 +3661,10 @@
         <v>7529477</v>
       </c>
       <c r="C181">
-        <v>218048</v>
+        <v>218069</v>
       </c>
       <c r="D181">
-        <v>2.8959249095255899</v>
+        <v>2.8962038133591501</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3679,10 +3675,10 @@
         <v>227393</v>
       </c>
       <c r="C182">
-        <v>6542</v>
+        <v>6562</v>
       </c>
       <c r="D182">
-        <v>2.8769575140835499</v>
+        <v>2.8857528595867099</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3693,10 +3689,10 @@
         <v>3432097300</v>
       </c>
       <c r="C183">
-        <v>97192904</v>
+        <v>97308256</v>
       </c>
       <c r="D183">
-        <v>2.8318807861303901</v>
+        <v>2.8352417631050302</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3707,10 +3703,10 @@
         <v>275501344</v>
       </c>
       <c r="C184">
-        <v>6759513</v>
+        <v>6765727</v>
       </c>
       <c r="D184">
-        <v>2.4535317693404801</v>
+        <v>2.4557872937273202</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3721,10 +3717,10 @@
         <v>36408824</v>
       </c>
       <c r="C185">
-        <v>838541</v>
+        <v>839347</v>
       </c>
       <c r="D185">
-        <v>2.30312574775829</v>
+        <v>2.30533949682088</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3749,10 +3745,10 @@
         <v>28301700</v>
       </c>
       <c r="C187">
-        <v>552429</v>
+        <v>552555</v>
       </c>
       <c r="D187">
-        <v>1.9519286827293101</v>
+        <v>1.95237388566765</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3763,10 +3759,10 @@
         <v>1341298</v>
       </c>
       <c r="C188">
-        <v>23426</v>
+        <v>23428</v>
       </c>
       <c r="D188">
-        <v>1.7465171796274901</v>
+        <v>1.7466662889231199</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,10 +3773,10 @@
         <v>20017670</v>
       </c>
       <c r="C189">
-        <v>343803</v>
+        <v>343881</v>
       </c>
       <c r="D189">
-        <v>1.71749759087846</v>
+        <v>1.7178872466176101</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3791,10 +3787,10 @@
         <v>16320539</v>
       </c>
       <c r="C190">
-        <v>264613</v>
+        <v>264639</v>
       </c>
       <c r="D190">
-        <v>1.6213496380236001</v>
+        <v>1.62150894648761</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3833,10 +3829,10 @@
         <v>4736146</v>
       </c>
       <c r="C193">
-        <v>63609</v>
+        <v>63617</v>
       </c>
       <c r="D193">
-        <v>1.34305403591866</v>
+        <v>1.34322294963035</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3847,10 +3843,10 @@
         <v>171186368</v>
       </c>
       <c r="C194">
-        <v>2038129</v>
+        <v>2038174</v>
       </c>
       <c r="D194">
-        <v>1.19059071339138</v>
+        <v>1.19061700053126</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3861,10 +3857,10 @@
         <v>54179312</v>
       </c>
       <c r="C195">
-        <v>634174</v>
+        <v>634471</v>
       </c>
       <c r="D195">
-        <v>1.1705095110842301</v>
+        <v>1.1710576908027199</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3917,10 +3913,10 @@
         <v>1426736614</v>
       </c>
       <c r="C199">
-        <v>13076720</v>
+        <v>13078756</v>
       </c>
       <c r="D199">
-        <v>0.91654758640686296</v>
+        <v>0.91669028969070798</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3931,10 +3927,10 @@
         <v>16767851</v>
       </c>
       <c r="C200">
-        <v>138726</v>
+        <v>138731</v>
       </c>
       <c r="D200">
-        <v>0.82733321043942998</v>
+        <v>0.82736302940669004</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3945,10 +3941,10 @@
         <v>34627648</v>
       </c>
       <c r="C201">
-        <v>252514</v>
+        <v>252725</v>
       </c>
       <c r="D201">
-        <v>0.72922654175068402</v>
+        <v>0.729835881432086</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3973,10 +3969,10 @@
         <v>235824864</v>
       </c>
       <c r="C203">
-        <v>1580439</v>
+        <v>1580522</v>
       </c>
       <c r="D203">
-        <v>0.670174880287432</v>
+        <v>0.67021007589768</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,10 +3983,10 @@
         <v>54027484</v>
       </c>
       <c r="C204">
-        <v>343005</v>
+        <v>343035</v>
       </c>
       <c r="D204">
-        <v>0.63487131845710199</v>
+        <v>0.63492684575132197</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4001,10 +3997,10 @@
         <v>44903228</v>
       </c>
       <c r="C205">
-        <v>271644</v>
+        <v>271673</v>
       </c>
       <c r="D205">
-        <v>0.60495428079246305</v>
+        <v>0.60501886412264205</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4015,10 +4011,10 @@
         <v>41128772</v>
       </c>
       <c r="C206">
-        <v>213191</v>
+        <v>214112</v>
       </c>
       <c r="D206">
-        <v>0.51835002513568895</v>
+        <v>0.52058933342332703</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,10 +4025,10 @@
         <v>17316452</v>
       </c>
       <c r="C207">
-        <v>88989</v>
+        <v>88993</v>
       </c>
       <c r="D207">
-        <v>0.51389857460408195</v>
+        <v>0.51392167402421696</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4113,10 +4109,10 @@
         <v>8848700</v>
       </c>
       <c r="C213">
-        <v>39471</v>
+        <v>39477</v>
       </c>
       <c r="D213">
-        <v>0.44606552374925101</v>
+        <v>0.44613333031970798</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4155,10 +4151,10 @@
         <v>5970430</v>
       </c>
       <c r="C216">
-        <v>25188</v>
+        <v>25189</v>
       </c>
       <c r="D216">
-        <v>0.421879161132448</v>
+        <v>0.42189591034481599</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4169,10 +4165,10 @@
         <v>12889583</v>
       </c>
       <c r="C217">
-        <v>53726</v>
+        <v>53731</v>
       </c>
       <c r="D217">
-        <v>0.41681720812845502</v>
+        <v>0.41685599914287402</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4183,10 +4179,10 @@
         <v>123379928</v>
       </c>
       <c r="C218">
-        <v>500774</v>
+        <v>500815</v>
       </c>
       <c r="D218">
-        <v>0.40587963384125197</v>
+        <v>0.40591286453011999</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4197,10 +4193,10 @@
         <v>47249588</v>
       </c>
       <c r="C219">
-        <v>170539</v>
+        <v>170552</v>
       </c>
       <c r="D219">
-        <v>0.36093224770552501</v>
+        <v>0.36095976117294398</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4211,10 +4207,10 @@
         <v>28160548</v>
       </c>
       <c r="C220">
-        <v>88316</v>
+        <v>88321</v>
       </c>
       <c r="D220">
-        <v>0.31361605605118198</v>
+        <v>0.31363381138747698</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4225,10 +4221,10 @@
         <v>737604900</v>
       </c>
       <c r="C221">
-        <v>2294054</v>
+        <v>2295318</v>
       </c>
       <c r="D221">
-        <v>0.31101393171330599</v>
+        <v>0.31118529716925702</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,10 +4235,10 @@
         <v>35588996</v>
       </c>
       <c r="C222">
-        <v>105353</v>
+        <v>105384</v>
       </c>
       <c r="D222">
-        <v>0.296026895504442</v>
+        <v>0.29611400108055902</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4253,10 +4249,10 @@
         <v>11585003</v>
       </c>
       <c r="C223">
-        <v>34214</v>
+        <v>34226</v>
       </c>
       <c r="D223">
-        <v>0.29533009184373998</v>
+        <v>0.29543367403530202</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4267,10 +4263,10 @@
         <v>13859349</v>
       </c>
       <c r="C224">
-        <v>38430</v>
+        <v>38462</v>
       </c>
       <c r="D224">
-        <v>0.27728575130043998</v>
+        <v>0.27751664237620399</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4337,10 +4333,10 @@
         <v>29611718</v>
       </c>
       <c r="C229">
-        <v>68177</v>
+        <v>68211</v>
       </c>
       <c r="D229">
-        <v>0.230236557027863</v>
+        <v>0.230351376438206</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,10 +4347,10 @@
         <v>6948395</v>
       </c>
       <c r="C230">
-        <v>15688</v>
+        <v>15691</v>
       </c>
       <c r="D230">
-        <v>0.22577875897959199</v>
+        <v>0.22582193441794801</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4435,10 +4431,10 @@
         <v>22593598</v>
       </c>
       <c r="C236">
-        <v>33134</v>
+        <v>33144</v>
       </c>
       <c r="D236">
-        <v>0.14665216226295599</v>
+        <v>0.146696422588381</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4533,10 +4529,10 @@
         <v>17723312</v>
       </c>
       <c r="C243">
-        <v>7696</v>
+        <v>7820</v>
       </c>
       <c r="D243">
-        <v>4.34230351527976E-2</v>
+        <v>4.4122678650581802E-2</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
